--- a/Code/Results/Cases/Case_6_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_41/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034024552278052</v>
+        <v>1.016188164376733</v>
       </c>
       <c r="D2">
-        <v>1.051785818199691</v>
+        <v>1.037249285722382</v>
       </c>
       <c r="E2">
-        <v>1.045675533079137</v>
+        <v>1.030812694636071</v>
       </c>
       <c r="F2">
-        <v>1.057523106266278</v>
+        <v>1.042618147261568</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.06475401776703</v>
+        <v>1.056970444363383</v>
       </c>
       <c r="J2">
-        <v>1.055233128359389</v>
+        <v>1.037895240523198</v>
       </c>
       <c r="K2">
-        <v>1.062567929444758</v>
+        <v>1.048212969507467</v>
       </c>
       <c r="L2">
-        <v>1.056533200217685</v>
+        <v>1.041858822190478</v>
       </c>
       <c r="M2">
-        <v>1.068235261194375</v>
+        <v>1.053514034548158</v>
       </c>
       <c r="N2">
-        <v>1.05673168043859</v>
+        <v>1.039369170812989</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.040980486078329</v>
+        <v>1.020885861401003</v>
       </c>
       <c r="D3">
-        <v>1.057299174138311</v>
+        <v>1.040890165714984</v>
       </c>
       <c r="E3">
-        <v>1.051560291166853</v>
+        <v>1.034673033768241</v>
       </c>
       <c r="F3">
-        <v>1.063522714612068</v>
+        <v>1.046668222046073</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.067218720317115</v>
+        <v>1.058422091171911</v>
       </c>
       <c r="J3">
-        <v>1.060413074393383</v>
+        <v>1.040822908924294</v>
       </c>
       <c r="K3">
-        <v>1.067247862463928</v>
+        <v>1.051025274333315</v>
       </c>
       <c r="L3">
-        <v>1.061573362805893</v>
+        <v>1.044880685438858</v>
       </c>
       <c r="M3">
-        <v>1.073402547333878</v>
+        <v>1.056736864428165</v>
       </c>
       <c r="N3">
-        <v>1.061918982590101</v>
+        <v>1.042300996839023</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.045359980617308</v>
+        <v>1.023863211545492</v>
       </c>
       <c r="D4">
-        <v>1.060771830305127</v>
+        <v>1.043198250883601</v>
       </c>
       <c r="E4">
-        <v>1.055270238742473</v>
+        <v>1.037124915423455</v>
       </c>
       <c r="F4">
-        <v>1.067304604306314</v>
+        <v>1.049238761883271</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.068756425118675</v>
+        <v>1.059328436914283</v>
       </c>
       <c r="J4">
-        <v>1.063670477274592</v>
+        <v>1.042675583446</v>
       </c>
       <c r="K4">
-        <v>1.070188209868684</v>
+        <v>1.052801834429972</v>
       </c>
       <c r="L4">
-        <v>1.064744404303607</v>
+        <v>1.046795007776847</v>
       </c>
       <c r="M4">
-        <v>1.076653310582019</v>
+        <v>1.058777131964867</v>
       </c>
       <c r="N4">
-        <v>1.065181011357031</v>
+        <v>1.044156302371054</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.047173522174022</v>
+        <v>1.025100494393377</v>
       </c>
       <c r="D5">
-        <v>1.062210103709443</v>
+        <v>1.044157482468608</v>
       </c>
       <c r="E5">
-        <v>1.056807613863131</v>
+        <v>1.038145043326486</v>
       </c>
       <c r="F5">
-        <v>1.068871675069802</v>
+        <v>1.050307812741835</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.069389747994309</v>
+        <v>1.059701747423981</v>
       </c>
       <c r="J5">
-        <v>1.065018365532207</v>
+        <v>1.043444770258414</v>
       </c>
       <c r="K5">
-        <v>1.071404254314841</v>
+        <v>1.053538658597526</v>
       </c>
       <c r="L5">
-        <v>1.066056917375272</v>
+        <v>1.047590276737657</v>
       </c>
       <c r="M5">
-        <v>1.077998752412404</v>
+        <v>1.059624389513863</v>
       </c>
       <c r="N5">
-        <v>1.066530813770577</v>
+        <v>1.044926581516969</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047476446408776</v>
+        <v>1.025307410604431</v>
       </c>
       <c r="D6">
-        <v>1.06245035753839</v>
+        <v>1.044317901577856</v>
       </c>
       <c r="E6">
-        <v>1.057064470802036</v>
+        <v>1.038315713683401</v>
       </c>
       <c r="F6">
-        <v>1.069133486394304</v>
+        <v>1.050486641798005</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.069495331005304</v>
+        <v>1.059763980278567</v>
       </c>
       <c r="J6">
-        <v>1.06524344933211</v>
+        <v>1.043573361363016</v>
       </c>
       <c r="K6">
-        <v>1.071607282821306</v>
+        <v>1.053661794149782</v>
       </c>
       <c r="L6">
-        <v>1.066276114818383</v>
+        <v>1.04772325680826</v>
       </c>
       <c r="M6">
-        <v>1.078223444937294</v>
+        <v>1.059766043072365</v>
       </c>
       <c r="N6">
-        <v>1.066756217215293</v>
+        <v>1.045055355235689</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.045384319813729</v>
+        <v>1.023879800050723</v>
       </c>
       <c r="D7">
-        <v>1.060791132213837</v>
+        <v>1.043211111287297</v>
       </c>
       <c r="E7">
-        <v>1.055290867340547</v>
+        <v>1.037138587761274</v>
       </c>
       <c r="F7">
-        <v>1.067325631830781</v>
+        <v>1.049253091677144</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.068764938500635</v>
+        <v>1.059333455205253</v>
       </c>
       <c r="J7">
-        <v>1.063688571042669</v>
+        <v>1.042685898983146</v>
       </c>
       <c r="K7">
-        <v>1.070204536385181</v>
+        <v>1.052811718983414</v>
       </c>
       <c r="L7">
-        <v>1.06476202178794</v>
+        <v>1.046805671176882</v>
       </c>
       <c r="M7">
-        <v>1.076671370339202</v>
+        <v>1.058788493778827</v>
       </c>
       <c r="N7">
-        <v>1.065199130820334</v>
+        <v>1.044166632557447</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036401418581216</v>
+        <v>1.017789020365626</v>
       </c>
       <c r="D8">
-        <v>1.053669396675978</v>
+        <v>1.038489858198643</v>
       </c>
       <c r="E8">
-        <v>1.047685299925957</v>
+        <v>1.032127072772593</v>
       </c>
       <c r="F8">
-        <v>1.059572190930523</v>
+        <v>1.043997513916695</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065599145619547</v>
+        <v>1.057467969577085</v>
       </c>
       <c r="J8">
-        <v>1.057003923665529</v>
+        <v>1.038893490999862</v>
       </c>
       <c r="K8">
-        <v>1.064168333207439</v>
+        <v>1.049172527903247</v>
       </c>
       <c r="L8">
-        <v>1.05825587878385</v>
+        <v>1.042888760825012</v>
       </c>
       <c r="M8">
-        <v>1.070001439779392</v>
+        <v>1.054612751557015</v>
       </c>
       <c r="N8">
-        <v>1.058504990477179</v>
+        <v>1.04036883891983</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01956931700239</v>
+        <v>1.006552973663773</v>
       </c>
       <c r="D9">
-        <v>1.040340636183077</v>
+        <v>1.029787243010121</v>
       </c>
       <c r="E9">
-        <v>1.033477318825099</v>
+        <v>1.022925983648753</v>
       </c>
       <c r="F9">
-        <v>1.045084507392019</v>
+        <v>1.03433371466152</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059556230953659</v>
+        <v>1.053919902396475</v>
       </c>
       <c r="J9">
-        <v>1.044449466250031</v>
+        <v>1.031876432915317</v>
       </c>
       <c r="K9">
-        <v>1.052811445882011</v>
+        <v>1.042414846463673</v>
       </c>
       <c r="L9">
-        <v>1.046049635071678</v>
+        <v>1.035657739663838</v>
       </c>
       <c r="M9">
-        <v>1.057486144524506</v>
+        <v>1.046893271524949</v>
       </c>
       <c r="N9">
-        <v>1.045932704292134</v>
+        <v>1.033341815807938</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.007560360872026</v>
+        <v>0.9986856737812372</v>
       </c>
       <c r="D10">
-        <v>1.030848911491518</v>
+        <v>1.023702566849756</v>
       </c>
       <c r="E10">
-        <v>1.023376200876552</v>
+        <v>1.016516680671775</v>
       </c>
       <c r="F10">
-        <v>1.034782595530489</v>
+        <v>1.027592298901305</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055173715285878</v>
+        <v>1.051366668520002</v>
       </c>
       <c r="J10">
-        <v>1.035477195507094</v>
+        <v>1.026951535509769</v>
       </c>
       <c r="K10">
-        <v>1.044682656293186</v>
+        <v>1.037656657456335</v>
       </c>
       <c r="L10">
-        <v>1.037335839365183</v>
+        <v>1.030593990278676</v>
       </c>
       <c r="M10">
-        <v>1.048551009221127</v>
+        <v>1.041480617968123</v>
       </c>
       <c r="N10">
-        <v>1.036947691895608</v>
+        <v>1.02840992448318</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.002144436743529</v>
+        <v>0.995180436217341</v>
       </c>
       <c r="D11">
-        <v>1.026574196612925</v>
+        <v>1.020994599618841</v>
       </c>
       <c r="E11">
-        <v>1.018830727059574</v>
+        <v>1.013669718100603</v>
       </c>
       <c r="F11">
-        <v>1.03014640669561</v>
+        <v>1.024595510174382</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.053181405612822</v>
+        <v>1.05021350012937</v>
       </c>
       <c r="J11">
-        <v>1.031428275955444</v>
+        <v>1.024755098318086</v>
       </c>
       <c r="K11">
-        <v>1.041011779898237</v>
+        <v>1.035531159676205</v>
       </c>
       <c r="L11">
-        <v>1.033406051232175</v>
+        <v>1.028338367173392</v>
       </c>
       <c r="M11">
-        <v>1.044521351416475</v>
+        <v>1.0390680334732</v>
       </c>
       <c r="N11">
-        <v>1.032893022413777</v>
+        <v>1.026210368098751</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000097447880836</v>
+        <v>0.9938627572645876</v>
       </c>
       <c r="D12">
-        <v>1.024959597330091</v>
+        <v>1.019977169346995</v>
       </c>
       <c r="E12">
-        <v>1.017114387866044</v>
+        <v>1.012600871661426</v>
       </c>
       <c r="F12">
-        <v>1.028395769958175</v>
+        <v>1.023470069499296</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.052426118051168</v>
+        <v>1.049777730524302</v>
       </c>
       <c r="J12">
-        <v>1.029897684110076</v>
+        <v>1.023929146670486</v>
       </c>
       <c r="K12">
-        <v>1.039623740081929</v>
+        <v>1.034731391750371</v>
       </c>
       <c r="L12">
-        <v>1.031920887748116</v>
+        <v>1.02749057618185</v>
       </c>
       <c r="M12">
-        <v>1.042998448657448</v>
+        <v>1.038161022654901</v>
       </c>
       <c r="N12">
-        <v>1.031360256952428</v>
+        <v>1.025383243505073</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000538179181139</v>
+        <v>0.9941461277776098</v>
       </c>
       <c r="D13">
-        <v>1.025307181349801</v>
+        <v>1.020195944678517</v>
       </c>
       <c r="E13">
-        <v>1.017483850608369</v>
+        <v>1.012830666688792</v>
       </c>
       <c r="F13">
-        <v>1.028772617491313</v>
+        <v>1.023712047452111</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.05258883803466</v>
+        <v>1.049871545591048</v>
       </c>
       <c r="J13">
-        <v>1.030227241960992</v>
+        <v>1.024106781323195</v>
       </c>
       <c r="K13">
-        <v>1.039922620083766</v>
+        <v>1.03490341707795</v>
       </c>
       <c r="L13">
-        <v>1.032240646123942</v>
+        <v>1.027672888817975</v>
       </c>
       <c r="M13">
-        <v>1.043326331998325</v>
+        <v>1.038356080219843</v>
       </c>
       <c r="N13">
-        <v>1.031690282813293</v>
+        <v>1.025561130419364</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.001975969105813</v>
+        <v>0.995071841463126</v>
       </c>
       <c r="D14">
-        <v>1.026441292200357</v>
+        <v>1.020910737952764</v>
       </c>
       <c r="E14">
-        <v>1.018689437447491</v>
+        <v>1.013581602153934</v>
       </c>
       <c r="F14">
-        <v>1.030002294536251</v>
+        <v>1.024502735577709</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.053119290910921</v>
+        <v>1.050177632568027</v>
       </c>
       <c r="J14">
-        <v>1.031302312796718</v>
+        <v>1.024687033850709</v>
       </c>
       <c r="K14">
-        <v>1.040897555408141</v>
+        <v>1.035465262829495</v>
       </c>
       <c r="L14">
-        <v>1.033283818583978</v>
+        <v>1.028268494476891</v>
       </c>
       <c r="M14">
-        <v>1.044396012584019</v>
+        <v>1.03899328456285</v>
       </c>
       <c r="N14">
-        <v>1.032766880372918</v>
+        <v>1.026142206972022</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.00285707465033</v>
+        <v>0.9956401000713637</v>
       </c>
       <c r="D15">
-        <v>1.027136442068444</v>
+        <v>1.021349594924931</v>
       </c>
       <c r="E15">
-        <v>1.019428467008706</v>
+        <v>1.014042755017448</v>
       </c>
       <c r="F15">
-        <v>1.03075608597774</v>
+        <v>1.024988255350112</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.053444066033444</v>
+        <v>1.050365229397277</v>
       </c>
       <c r="J15">
-        <v>1.031961104486942</v>
+        <v>1.025043193277404</v>
       </c>
       <c r="K15">
-        <v>1.041494939109751</v>
+        <v>1.035810059848124</v>
       </c>
       <c r="L15">
-        <v>1.033923115707776</v>
+        <v>1.028634132811058</v>
       </c>
       <c r="M15">
-        <v>1.045051555798497</v>
+        <v>1.03938443061972</v>
       </c>
       <c r="N15">
-        <v>1.033426607622906</v>
+        <v>1.026498872185956</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.007915013857554</v>
+        <v>0.9989161547483415</v>
       </c>
       <c r="D16">
-        <v>1.031128971338652</v>
+        <v>1.023880694921778</v>
       </c>
       <c r="E16">
-        <v>1.023674073971749</v>
+        <v>1.016704064560546</v>
       </c>
       <c r="F16">
-        <v>1.035086406702694</v>
+        <v>1.027789496273108</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055303858439915</v>
+        <v>1.051442174156074</v>
       </c>
       <c r="J16">
-        <v>1.035742288947881</v>
+        <v>1.02709591769679</v>
       </c>
       <c r="K16">
-        <v>1.044922947130532</v>
+        <v>1.037796307115296</v>
       </c>
       <c r="L16">
-        <v>1.037593186148476</v>
+        <v>1.030742320531174</v>
       </c>
       <c r="M16">
-        <v>1.048814895998736</v>
+        <v>1.041639238467408</v>
       </c>
       <c r="N16">
-        <v>1.037213161799488</v>
+        <v>1.028554511709467</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.011028009904883</v>
+        <v>1.000944141275877</v>
       </c>
       <c r="D17">
-        <v>1.033587912174801</v>
+        <v>1.025448386737555</v>
       </c>
       <c r="E17">
-        <v>1.026289830498549</v>
+        <v>1.018353838014545</v>
       </c>
       <c r="F17">
-        <v>1.037754268646665</v>
+        <v>1.029525407600812</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056444421589979</v>
+        <v>1.052104777434326</v>
       </c>
       <c r="J17">
-        <v>1.038068896301316</v>
+        <v>1.028366085813716</v>
       </c>
       <c r="K17">
-        <v>1.04703158340461</v>
+        <v>1.039024456416913</v>
       </c>
       <c r="L17">
-        <v>1.039852088015557</v>
+        <v>1.032047533079691</v>
       </c>
       <c r="M17">
-        <v>1.051131199424709</v>
+        <v>1.043034823834522</v>
       </c>
       <c r="N17">
-        <v>1.039543073202231</v>
+        <v>1.02982648361081</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.012823137657219</v>
+        <v>1.002117574828322</v>
       </c>
       <c r="D18">
-        <v>1.035006424891947</v>
+        <v>1.026355766197137</v>
       </c>
       <c r="E18">
-        <v>1.027799156380522</v>
+        <v>1.019309247441511</v>
       </c>
       <c r="F18">
-        <v>1.039293625582724</v>
+        <v>1.03053048172364</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057100636088736</v>
+        <v>1.05248668981919</v>
       </c>
       <c r="J18">
-        <v>1.039410304547389</v>
+        <v>1.029100820746385</v>
       </c>
       <c r="K18">
-        <v>1.048247073709675</v>
+        <v>1.039734560724148</v>
       </c>
       <c r="L18">
-        <v>1.041154693491846</v>
+        <v>1.03280279902825</v>
       </c>
       <c r="M18">
-        <v>1.052466900370681</v>
+        <v>1.043842237413065</v>
       </c>
       <c r="N18">
-        <v>1.040886386401876</v>
+        <v>1.030562261951359</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01343181118364</v>
+        <v>1.002516106355461</v>
       </c>
       <c r="D19">
-        <v>1.035487488273919</v>
+        <v>1.02666398344999</v>
       </c>
       <c r="E19">
-        <v>1.028311077438399</v>
+        <v>1.019633868320117</v>
       </c>
       <c r="F19">
-        <v>1.039815726216548</v>
+        <v>1.030871940035754</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.057322881649256</v>
+        <v>1.052616144609854</v>
       </c>
       <c r="J19">
-        <v>1.039865091223914</v>
+        <v>1.029350320579823</v>
       </c>
       <c r="K19">
-        <v>1.048659126862881</v>
+        <v>1.039975640889827</v>
       </c>
       <c r="L19">
-        <v>1.041596363561148</v>
+        <v>1.033059314592715</v>
       </c>
       <c r="M19">
-        <v>1.052919790778239</v>
+        <v>1.044116439065014</v>
       </c>
       <c r="N19">
-        <v>1.041341818927645</v>
+        <v>1.030812116103178</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.010696168150934</v>
+        <v>1.000727541660799</v>
       </c>
       <c r="D20">
-        <v>1.033325733705714</v>
+        <v>1.025280919199501</v>
       </c>
       <c r="E20">
-        <v>1.026010895829118</v>
+        <v>1.018177548215138</v>
       </c>
       <c r="F20">
-        <v>1.037469781160227</v>
+        <v>1.029339936080159</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056322993839735</v>
+        <v>1.052034161330056</v>
       </c>
       <c r="J20">
-        <v>1.037820907283071</v>
+        <v>1.028230446576767</v>
       </c>
       <c r="K20">
-        <v>1.046806852930326</v>
+        <v>1.038893337849776</v>
       </c>
       <c r="L20">
-        <v>1.039611291275167</v>
+        <v>1.03190812455069</v>
       </c>
       <c r="M20">
-        <v>1.050884284216916</v>
+        <v>1.042885777864205</v>
       </c>
       <c r="N20">
-        <v>1.039294732011135</v>
+        <v>1.029690651750587</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.00155357390471</v>
+        <v>0.9947996818369388</v>
       </c>
       <c r="D21">
-        <v>1.026108081549</v>
+        <v>1.020700573282712</v>
       </c>
       <c r="E21">
-        <v>1.018335212290464</v>
+        <v>1.013360788825539</v>
       </c>
       <c r="F21">
-        <v>1.029640992335025</v>
+        <v>1.024270242406049</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052963515779401</v>
+        <v>1.05008770507752</v>
       </c>
       <c r="J21">
-        <v>1.030986484131296</v>
+        <v>1.024516446810363</v>
       </c>
       <c r="K21">
-        <v>1.04061115358361</v>
+        <v>1.035300100540829</v>
       </c>
       <c r="L21">
-        <v>1.032977349868337</v>
+        <v>1.028093382285636</v>
       </c>
       <c r="M21">
-        <v>1.0440817559681</v>
+        <v>1.038805948199915</v>
       </c>
       <c r="N21">
-        <v>1.032450603194565</v>
+        <v>1.025971377678512</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.995599526515987</v>
+        <v>0.9909814235738162</v>
       </c>
       <c r="D22">
-        <v>1.02141393462104</v>
+        <v>1.017753475121358</v>
       </c>
       <c r="E22">
-        <v>1.013346247167384</v>
+        <v>1.010266267251162</v>
       </c>
       <c r="F22">
-        <v>1.024552260725563</v>
+        <v>1.021011219442328</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050762414835268</v>
+        <v>1.048820740787078</v>
       </c>
       <c r="J22">
-        <v>1.02653408316198</v>
+        <v>1.022122618712418</v>
       </c>
       <c r="K22">
-        <v>1.036572787608582</v>
+        <v>1.032981249893012</v>
       </c>
       <c r="L22">
-        <v>1.028657869080666</v>
+        <v>1.025637054399495</v>
       </c>
       <c r="M22">
-        <v>1.039652534518207</v>
+        <v>1.036177623451178</v>
       </c>
       <c r="N22">
-        <v>1.027991879305175</v>
+        <v>1.023574150070093</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9987764150945514</v>
+        <v>0.9930145001236768</v>
       </c>
       <c r="D23">
-        <v>1.023917930144105</v>
+        <v>1.019322361167035</v>
       </c>
       <c r="E23">
-        <v>1.016007228112191</v>
+        <v>1.011913197792448</v>
       </c>
       <c r="F23">
-        <v>1.02726647470524</v>
+        <v>1.022745887253372</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.051938060930757</v>
+        <v>1.049496571444435</v>
       </c>
       <c r="J23">
-        <v>1.028909847489203</v>
+        <v>1.023397369370898</v>
       </c>
       <c r="K23">
-        <v>1.038727809310967</v>
+        <v>1.034216336252785</v>
       </c>
       <c r="L23">
-        <v>1.03096248401983</v>
+        <v>1.026944856154392</v>
       </c>
       <c r="M23">
-        <v>1.042015693676167</v>
+        <v>1.037577120592052</v>
       </c>
       <c r="N23">
-        <v>1.030371017490247</v>
+        <v>1.024850711020723</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.01084617669954</v>
+        <v>1.000825442864724</v>
       </c>
       <c r="D24">
-        <v>1.033444249379764</v>
+        <v>1.025356612251113</v>
       </c>
       <c r="E24">
-        <v>1.026136984922447</v>
+        <v>1.018257227192033</v>
       </c>
       <c r="F24">
-        <v>1.037598380445991</v>
+        <v>1.029423765665293</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056377889724396</v>
+        <v>1.052066083819055</v>
       </c>
       <c r="J24">
-        <v>1.037933011097647</v>
+        <v>1.028291755025184</v>
       </c>
       <c r="K24">
-        <v>1.046908443452296</v>
+        <v>1.038952603979905</v>
       </c>
       <c r="L24">
-        <v>1.039720143087728</v>
+        <v>1.031971135901576</v>
       </c>
       <c r="M24">
-        <v>1.050995901891234</v>
+        <v>1.042953145704512</v>
       </c>
       <c r="N24">
-        <v>1.039406995025985</v>
+        <v>1.029752047264033</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024050630478027</v>
+        <v>1.00952118248425</v>
       </c>
       <c r="D25">
-        <v>1.04388673024241</v>
+        <v>1.032084990815376</v>
       </c>
       <c r="E25">
-        <v>1.03725438592699</v>
+        <v>1.025351162731796</v>
       </c>
       <c r="F25">
-        <v>1.04893629362235</v>
+        <v>1.036882551009408</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061177537027173</v>
+        <v>1.054869307563471</v>
       </c>
       <c r="J25">
-        <v>1.047794845769062</v>
+        <v>1.033732315179491</v>
       </c>
       <c r="K25">
-        <v>1.055839926312171</v>
+        <v>1.044204839801676</v>
       </c>
       <c r="L25">
-        <v>1.049300647601534</v>
+        <v>1.037568280295486</v>
       </c>
       <c r="M25">
-        <v>1.060819628284309</v>
+        <v>1.048934074859497</v>
       </c>
       <c r="N25">
-        <v>1.049282834633803</v>
+        <v>1.0352003336378</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_41/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016188164376733</v>
+        <v>1.009396587455156</v>
       </c>
       <c r="D2">
-        <v>1.037249285722382</v>
+        <v>1.032023792561728</v>
       </c>
       <c r="E2">
-        <v>1.030812694636071</v>
+        <v>1.025071577544978</v>
       </c>
       <c r="F2">
-        <v>1.042618147261568</v>
+        <v>1.037045676703491</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056970444363383</v>
+        <v>1.054161768952379</v>
       </c>
       <c r="J2">
-        <v>1.037895240523198</v>
+        <v>1.03129983513911</v>
       </c>
       <c r="K2">
-        <v>1.048212969507467</v>
+        <v>1.043054309414653</v>
       </c>
       <c r="L2">
-        <v>1.041858822190478</v>
+        <v>1.036192335220246</v>
       </c>
       <c r="M2">
-        <v>1.053514034548158</v>
+        <v>1.04801194885976</v>
       </c>
       <c r="N2">
-        <v>1.039369170812989</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014330730119474</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.041513408385546</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020885861401003</v>
+        <v>1.013063051528319</v>
       </c>
       <c r="D3">
-        <v>1.040890165714984</v>
+        <v>1.034562763176568</v>
       </c>
       <c r="E3">
-        <v>1.034673033768241</v>
+        <v>1.027992676221825</v>
       </c>
       <c r="F3">
-        <v>1.046668222046073</v>
+        <v>1.040086527085584</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058422091171911</v>
+        <v>1.055026512441239</v>
       </c>
       <c r="J3">
-        <v>1.040822908924294</v>
+        <v>1.033203830194685</v>
       </c>
       <c r="K3">
-        <v>1.051025274333315</v>
+        <v>1.044771711252182</v>
       </c>
       <c r="L3">
-        <v>1.044880685438858</v>
+        <v>1.038279488387822</v>
       </c>
       <c r="M3">
-        <v>1.056736864428165</v>
+        <v>1.050230952431832</v>
       </c>
       <c r="N3">
-        <v>1.042300996839023</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014967059647359</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.042725097359668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023863211545492</v>
+        <v>1.015395536322991</v>
       </c>
       <c r="D4">
-        <v>1.043198250883601</v>
+        <v>1.036179850573112</v>
       </c>
       <c r="E4">
-        <v>1.037124915423455</v>
+        <v>1.029856334113686</v>
       </c>
       <c r="F4">
-        <v>1.049238761883271</v>
+        <v>1.042024963961337</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059328436914283</v>
+        <v>1.055564117471332</v>
       </c>
       <c r="J4">
-        <v>1.042675583446</v>
+        <v>1.034413456398032</v>
       </c>
       <c r="K4">
-        <v>1.052801834429972</v>
+        <v>1.045860378450412</v>
       </c>
       <c r="L4">
-        <v>1.046795007776847</v>
+        <v>1.039607293770219</v>
       </c>
       <c r="M4">
-        <v>1.058777131964867</v>
+        <v>1.051641321953149</v>
       </c>
       <c r="N4">
-        <v>1.044156302371054</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015371371820569</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.043495763683915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025100494393377</v>
+        <v>1.016369429448731</v>
       </c>
       <c r="D5">
-        <v>1.044157482468608</v>
+        <v>1.036857100953521</v>
       </c>
       <c r="E5">
-        <v>1.038145043326486</v>
+        <v>1.030636166149921</v>
       </c>
       <c r="F5">
-        <v>1.050307812741835</v>
+        <v>1.0428358974499</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059701747423981</v>
+        <v>1.055786748424888</v>
       </c>
       <c r="J5">
-        <v>1.043444770258414</v>
+        <v>1.034919294208366</v>
       </c>
       <c r="K5">
-        <v>1.053538658597526</v>
+        <v>1.046316174662987</v>
       </c>
       <c r="L5">
-        <v>1.047590276737657</v>
+        <v>1.040162688167376</v>
       </c>
       <c r="M5">
-        <v>1.059624389513863</v>
+        <v>1.05223107640255</v>
       </c>
       <c r="N5">
-        <v>1.044926581516969</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015540730916285</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.04382518085349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025307410604431</v>
+        <v>1.016535582489989</v>
       </c>
       <c r="D6">
-        <v>1.044317901577856</v>
+        <v>1.036974669459836</v>
       </c>
       <c r="E6">
-        <v>1.038315713683401</v>
+        <v>1.030769813665802</v>
       </c>
       <c r="F6">
-        <v>1.050486641798005</v>
+        <v>1.042975097462905</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059763980278567</v>
+        <v>1.055826024470368</v>
       </c>
       <c r="J6">
-        <v>1.043573361363016</v>
+        <v>1.035007017562696</v>
       </c>
       <c r="K6">
-        <v>1.053661794149782</v>
+        <v>1.046396557116483</v>
       </c>
       <c r="L6">
-        <v>1.04772325680826</v>
+        <v>1.040258667860146</v>
       </c>
       <c r="M6">
-        <v>1.059766043072365</v>
+        <v>1.052333152068521</v>
       </c>
       <c r="N6">
-        <v>1.045055355235689</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015570436823106</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.043890716801914</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.023879800050723</v>
+        <v>1.015417072602817</v>
       </c>
       <c r="D7">
-        <v>1.043211111287297</v>
+        <v>1.036200156118875</v>
       </c>
       <c r="E7">
-        <v>1.037138587761274</v>
+        <v>1.029874991782328</v>
       </c>
       <c r="F7">
-        <v>1.049253091677144</v>
+        <v>1.042045005209909</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059333455205253</v>
+        <v>1.055572980292184</v>
       </c>
       <c r="J7">
-        <v>1.042685898983146</v>
+        <v>1.034428514488806</v>
       </c>
       <c r="K7">
-        <v>1.052811718983414</v>
+        <v>1.045877597947324</v>
       </c>
       <c r="L7">
-        <v>1.046805671176882</v>
+        <v>1.039622857005152</v>
       </c>
       <c r="M7">
-        <v>1.058788493778827</v>
+        <v>1.051658304457485</v>
       </c>
       <c r="N7">
-        <v>1.044166632557447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015377322749069</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.043527949911378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.017789020365626</v>
+        <v>1.010654578376859</v>
       </c>
       <c r="D8">
-        <v>1.038489858198643</v>
+        <v>1.032900985024094</v>
       </c>
       <c r="E8">
-        <v>1.032127072772593</v>
+        <v>1.026074467678765</v>
       </c>
       <c r="F8">
-        <v>1.043997513916695</v>
+        <v>1.038090710464196</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057467969577085</v>
+        <v>1.054465745544211</v>
       </c>
       <c r="J8">
-        <v>1.038893490999862</v>
+        <v>1.03195816456139</v>
       </c>
       <c r="K8">
-        <v>1.049172527903247</v>
+        <v>1.043652997180923</v>
       </c>
       <c r="L8">
-        <v>1.042888760825012</v>
+        <v>1.036912457442733</v>
       </c>
       <c r="M8">
-        <v>1.054612751557015</v>
+        <v>1.048778301672588</v>
       </c>
       <c r="N8">
-        <v>1.04036883891983</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014551920910257</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.041959536103157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.006552973663773</v>
+        <v>1.00192994999616</v>
       </c>
       <c r="D9">
-        <v>1.029787243010121</v>
+        <v>1.026865547988907</v>
       </c>
       <c r="E9">
-        <v>1.022925983648753</v>
+        <v>1.019153716432449</v>
       </c>
       <c r="F9">
-        <v>1.03433371466152</v>
+        <v>1.030876406090186</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053919902396475</v>
+        <v>1.052334282282276</v>
       </c>
       <c r="J9">
-        <v>1.031876432915317</v>
+        <v>1.027414740345174</v>
       </c>
       <c r="K9">
-        <v>1.042414846463673</v>
+        <v>1.039537285381019</v>
       </c>
       <c r="L9">
-        <v>1.035657739663838</v>
+        <v>1.031943497642166</v>
       </c>
       <c r="M9">
-        <v>1.046893271524949</v>
+        <v>1.043487638564685</v>
       </c>
       <c r="N9">
-        <v>1.033341815807938</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.013032743700169</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.039046310362566</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9986856737812372</v>
+        <v>0.995882408357384</v>
       </c>
       <c r="D10">
-        <v>1.023702566849756</v>
+        <v>1.022697856763355</v>
       </c>
       <c r="E10">
-        <v>1.016516680671775</v>
+        <v>1.014389046235189</v>
       </c>
       <c r="F10">
-        <v>1.027592298901305</v>
+        <v>1.025901302553793</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051366668520002</v>
+        <v>1.05079514685592</v>
       </c>
       <c r="J10">
-        <v>1.026951535509769</v>
+        <v>1.024260351736695</v>
       </c>
       <c r="K10">
-        <v>1.037656657456335</v>
+        <v>1.03666904102595</v>
       </c>
       <c r="L10">
-        <v>1.030593990278676</v>
+        <v>1.028503272792405</v>
       </c>
       <c r="M10">
-        <v>1.041480617968123</v>
+        <v>1.039818135637218</v>
       </c>
       <c r="N10">
-        <v>1.02840992448318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011978800346836</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.037035057897235</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.995180436217341</v>
+        <v>0.9932138930613333</v>
       </c>
       <c r="D11">
-        <v>1.020994599618841</v>
+        <v>1.020868688093178</v>
       </c>
       <c r="E11">
-        <v>1.013669718100603</v>
+        <v>1.012296520109754</v>
       </c>
       <c r="F11">
-        <v>1.024595510174382</v>
+        <v>1.02371471324044</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05021350012937</v>
+        <v>1.050105751083151</v>
       </c>
       <c r="J11">
-        <v>1.024755098318086</v>
+        <v>1.022871732632199</v>
       </c>
       <c r="K11">
-        <v>1.035531159676205</v>
+        <v>1.035407497911663</v>
       </c>
       <c r="L11">
-        <v>1.028338367173392</v>
+        <v>1.026990208946455</v>
       </c>
       <c r="M11">
-        <v>1.0390680334732</v>
+        <v>1.038202846182706</v>
       </c>
       <c r="N11">
-        <v>1.026210368098751</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011516315894077</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.036175874963365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9938627572645876</v>
+        <v>0.9922076472687797</v>
       </c>
       <c r="D12">
-        <v>1.019977169346995</v>
+        <v>1.020176269641196</v>
       </c>
       <c r="E12">
-        <v>1.012600871661426</v>
+        <v>1.011507726382094</v>
       </c>
       <c r="F12">
-        <v>1.023470069499296</v>
+        <v>1.022889948251765</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049777730524302</v>
+        <v>1.049841415936758</v>
       </c>
       <c r="J12">
-        <v>1.023929146670486</v>
+        <v>1.022345494351792</v>
       </c>
       <c r="K12">
-        <v>1.034731391750371</v>
+        <v>1.034926870456648</v>
       </c>
       <c r="L12">
-        <v>1.02749057618185</v>
+        <v>1.026417728251023</v>
       </c>
       <c r="M12">
-        <v>1.038161022654901</v>
+        <v>1.037591370630265</v>
       </c>
       <c r="N12">
-        <v>1.025383243505073</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011340334006136</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.035836056734832</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9941461277776098</v>
+        <v>0.9924228194937063</v>
       </c>
       <c r="D13">
-        <v>1.020195944678517</v>
+        <v>1.020323661371276</v>
       </c>
       <c r="E13">
-        <v>1.012830666688792</v>
+        <v>1.011676143206113</v>
       </c>
       <c r="F13">
-        <v>1.023712047452111</v>
+        <v>1.023066021500009</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049871545591048</v>
+        <v>1.049897597669309</v>
       </c>
       <c r="J13">
-        <v>1.024106781323195</v>
+        <v>1.022457549353352</v>
       </c>
       <c r="K13">
-        <v>1.03490341707795</v>
+        <v>1.035028819476927</v>
       </c>
       <c r="L13">
-        <v>1.027672888817975</v>
+        <v>1.026539719592817</v>
       </c>
       <c r="M13">
-        <v>1.038356080219843</v>
+        <v>1.037721667760509</v>
       </c>
       <c r="N13">
-        <v>1.025561130419364</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011377659815288</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.035905648116579</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.995071841463126</v>
+        <v>0.9931304392871507</v>
       </c>
       <c r="D14">
-        <v>1.020910737952764</v>
+        <v>1.020810972947791</v>
       </c>
       <c r="E14">
-        <v>1.013581602153934</v>
+        <v>1.012230990062376</v>
       </c>
       <c r="F14">
-        <v>1.024502735577709</v>
+        <v>1.0236461844931</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050177632568027</v>
+        <v>1.050083683478979</v>
       </c>
       <c r="J14">
-        <v>1.024687033850709</v>
+        <v>1.022827885956764</v>
       </c>
       <c r="K14">
-        <v>1.035465262829495</v>
+        <v>1.035367283052259</v>
       </c>
       <c r="L14">
-        <v>1.028268494476891</v>
+        <v>1.026942547379985</v>
       </c>
       <c r="M14">
-        <v>1.03899328456285</v>
+        <v>1.038151936325494</v>
       </c>
       <c r="N14">
-        <v>1.026142206972022</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011501590320826</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.036146375330189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9956401000713637</v>
+        <v>0.9935673598954378</v>
       </c>
       <c r="D15">
-        <v>1.021349594924931</v>
+        <v>1.021113235494032</v>
       </c>
       <c r="E15">
-        <v>1.014042755017448</v>
+        <v>1.012574144242971</v>
       </c>
       <c r="F15">
-        <v>1.024988255350112</v>
+        <v>1.024005034751226</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050365229397277</v>
+        <v>1.050199179370769</v>
       </c>
       <c r="J15">
-        <v>1.025043193277404</v>
+        <v>1.023057489434598</v>
       </c>
       <c r="K15">
-        <v>1.035810059848124</v>
+        <v>1.035577897097408</v>
       </c>
       <c r="L15">
-        <v>1.028634132811058</v>
+        <v>1.027192131023895</v>
       </c>
       <c r="M15">
-        <v>1.03938443061972</v>
+        <v>1.038418523641664</v>
       </c>
       <c r="N15">
-        <v>1.026498872185956</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011578716085701</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.036301149751018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9989161547483415</v>
+        <v>0.9960772344209609</v>
       </c>
       <c r="D16">
-        <v>1.023880694921778</v>
+        <v>1.022842740042152</v>
       </c>
       <c r="E16">
-        <v>1.016704064560546</v>
+        <v>1.014545412206915</v>
       </c>
       <c r="F16">
-        <v>1.027789496273108</v>
+        <v>1.02606540291867</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.051442174156074</v>
+        <v>1.050852875016672</v>
       </c>
       <c r="J16">
-        <v>1.02709591769679</v>
+        <v>1.024370072563205</v>
       </c>
       <c r="K16">
-        <v>1.037796307115296</v>
+        <v>1.036775952756382</v>
       </c>
       <c r="L16">
-        <v>1.030742320531174</v>
+        <v>1.028620997342239</v>
       </c>
       <c r="M16">
-        <v>1.041639238467408</v>
+        <v>1.0399441192543</v>
       </c>
       <c r="N16">
-        <v>1.028554511709467</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012017822599635</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.037151375899693</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.000944141275877</v>
+        <v>0.9976351525194102</v>
       </c>
       <c r="D17">
-        <v>1.025448386737555</v>
+        <v>1.023917344861098</v>
       </c>
       <c r="E17">
-        <v>1.018353838014545</v>
+        <v>1.015771184103203</v>
       </c>
       <c r="F17">
-        <v>1.029525407600812</v>
+        <v>1.027346062877886</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052104777434326</v>
+        <v>1.051254868317745</v>
       </c>
       <c r="J17">
-        <v>1.028366085813716</v>
+        <v>1.025184512644494</v>
       </c>
       <c r="K17">
-        <v>1.039024456416913</v>
+        <v>1.037518621267373</v>
       </c>
       <c r="L17">
-        <v>1.032047533079691</v>
+        <v>1.029508224863301</v>
       </c>
       <c r="M17">
-        <v>1.043034823834522</v>
+        <v>1.040891023678348</v>
       </c>
       <c r="N17">
-        <v>1.02982648361081</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012290301499274</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.037679049159029</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002117574828322</v>
+        <v>0.998532190690027</v>
       </c>
       <c r="D18">
-        <v>1.026355766197137</v>
+        <v>1.024532982330153</v>
       </c>
       <c r="E18">
-        <v>1.019309247441511</v>
+        <v>1.016476699449647</v>
       </c>
       <c r="F18">
-        <v>1.03053048172364</v>
+        <v>1.028082733206881</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05248668981919</v>
+        <v>1.051482564965788</v>
       </c>
       <c r="J18">
-        <v>1.029100820746385</v>
+        <v>1.025650765009396</v>
       </c>
       <c r="K18">
-        <v>1.039734560724148</v>
+        <v>1.037941267695668</v>
       </c>
       <c r="L18">
-        <v>1.03280279902825</v>
+        <v>1.030016957930328</v>
       </c>
       <c r="M18">
-        <v>1.043842237413065</v>
+        <v>1.041433710877439</v>
       </c>
       <c r="N18">
-        <v>1.030562261951359</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012445551549413</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.037966258575486</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.002516106355461</v>
+        <v>0.9988416218029441</v>
       </c>
       <c r="D19">
-        <v>1.02666398344999</v>
+        <v>1.024748106402759</v>
       </c>
       <c r="E19">
-        <v>1.019633868320117</v>
+        <v>1.016721000459684</v>
       </c>
       <c r="F19">
-        <v>1.030871940035754</v>
+        <v>1.028337985563106</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052616144609854</v>
+        <v>1.051562741096371</v>
       </c>
       <c r="J19">
-        <v>1.029350320579823</v>
+        <v>1.025813579185534</v>
       </c>
       <c r="K19">
-        <v>1.039975640889827</v>
+        <v>1.038090575457358</v>
       </c>
       <c r="L19">
-        <v>1.033059314592715</v>
+        <v>1.030194187191233</v>
       </c>
       <c r="M19">
-        <v>1.044116439065014</v>
+        <v>1.041622841764025</v>
       </c>
       <c r="N19">
-        <v>1.030812116103178</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012500348224692</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.038078202774575</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.000727541660799</v>
+        <v>0.9974681502038043</v>
       </c>
       <c r="D20">
-        <v>1.025280919199501</v>
+        <v>1.023801844052305</v>
       </c>
       <c r="E20">
-        <v>1.018177548215138</v>
+        <v>1.015639625681087</v>
       </c>
       <c r="F20">
-        <v>1.029339936080159</v>
+        <v>1.027208614096742</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.052034161330056</v>
+        <v>1.051211733012557</v>
       </c>
       <c r="J20">
-        <v>1.028230446576767</v>
+        <v>1.025097020504225</v>
       </c>
       <c r="K20">
-        <v>1.038893337849776</v>
+        <v>1.037438691717193</v>
       </c>
       <c r="L20">
-        <v>1.03190812455069</v>
+        <v>1.029412934915949</v>
       </c>
       <c r="M20">
-        <v>1.042885777864205</v>
+        <v>1.040789329924172</v>
       </c>
       <c r="N20">
-        <v>1.029690651750587</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012260971160774</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.037621203651828</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9947996818369388</v>
+        <v>0.9929285411485649</v>
       </c>
       <c r="D21">
-        <v>1.020700573282712</v>
+        <v>1.020675526065969</v>
       </c>
       <c r="E21">
-        <v>1.013360788825539</v>
+        <v>1.012073757842242</v>
       </c>
       <c r="F21">
-        <v>1.024270242406049</v>
+        <v>1.023481997428394</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.05008770507752</v>
+        <v>1.050033103856139</v>
       </c>
       <c r="J21">
-        <v>1.024516446810363</v>
+        <v>1.022724921546126</v>
       </c>
       <c r="K21">
-        <v>1.035300100540829</v>
+        <v>1.035275503187912</v>
       </c>
       <c r="L21">
-        <v>1.028093382285636</v>
+        <v>1.026829943529245</v>
       </c>
       <c r="M21">
-        <v>1.038805948199915</v>
+        <v>1.038031746389694</v>
       </c>
       <c r="N21">
-        <v>1.025971377678512</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.011467952688901</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.036094978576763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9909814235738162</v>
+        <v>0.9900114060527164</v>
       </c>
       <c r="D22">
-        <v>1.017753475121358</v>
+        <v>1.018665803755326</v>
       </c>
       <c r="E22">
-        <v>1.010266267251162</v>
+        <v>1.009788344034821</v>
       </c>
       <c r="F22">
-        <v>1.021011219442328</v>
+        <v>1.021091597669186</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048820740787078</v>
+        <v>1.04926036538003</v>
       </c>
       <c r="J22">
-        <v>1.022122618712418</v>
+        <v>1.021196356259824</v>
       </c>
       <c r="K22">
-        <v>1.032981249893012</v>
+        <v>1.033876339987051</v>
       </c>
       <c r="L22">
-        <v>1.025637054399495</v>
+        <v>1.025168354284699</v>
       </c>
       <c r="M22">
-        <v>1.036177623451178</v>
+        <v>1.036256493942753</v>
       </c>
       <c r="N22">
-        <v>1.023574150070093</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.010955972683798</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.03509223070967</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9930145001236768</v>
+        <v>0.9915557750923487</v>
       </c>
       <c r="D23">
-        <v>1.019322361167035</v>
+        <v>1.019725094315943</v>
       </c>
       <c r="E23">
-        <v>1.011913197792448</v>
+        <v>1.010996223964877</v>
       </c>
       <c r="F23">
-        <v>1.022745887253372</v>
+        <v>1.022354880477789</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049496571444435</v>
+        <v>1.049667681271286</v>
       </c>
       <c r="J23">
-        <v>1.023397369370898</v>
+        <v>1.022002451110674</v>
       </c>
       <c r="K23">
-        <v>1.034216336252785</v>
+        <v>1.034611660169217</v>
       </c>
       <c r="L23">
-        <v>1.026944856154392</v>
+        <v>1.026045105602846</v>
       </c>
       <c r="M23">
-        <v>1.037577120592052</v>
+        <v>1.037193251988692</v>
       </c>
       <c r="N23">
-        <v>1.024850711020723</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.011224977540673</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.035602510625661</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.000825442864724</v>
+        <v>0.997531287613988</v>
       </c>
       <c r="D24">
-        <v>1.025356612251113</v>
+        <v>1.023838239863045</v>
       </c>
       <c r="E24">
-        <v>1.018257227192033</v>
+        <v>1.015687181809707</v>
       </c>
       <c r="F24">
-        <v>1.029423765665293</v>
+        <v>1.027257788085224</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052066083819055</v>
+        <v>1.05122302662865</v>
       </c>
       <c r="J24">
-        <v>1.028291755025184</v>
+        <v>1.025124700901991</v>
       </c>
       <c r="K24">
-        <v>1.038952603979905</v>
+        <v>1.037459274026033</v>
       </c>
       <c r="L24">
-        <v>1.031971135901576</v>
+        <v>1.029444301802451</v>
       </c>
       <c r="M24">
-        <v>1.042953145704512</v>
+        <v>1.040822558018938</v>
       </c>
       <c r="N24">
-        <v>1.029752047264033</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012268683582336</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.03760841532764</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00952118248425</v>
+        <v>1.0042383058557</v>
       </c>
       <c r="D25">
-        <v>1.032084990815376</v>
+        <v>1.028468042341973</v>
       </c>
       <c r="E25">
-        <v>1.025351162731796</v>
+        <v>1.020981690615156</v>
       </c>
       <c r="F25">
-        <v>1.036882551009408</v>
+        <v>1.032784094334237</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.054869307563471</v>
+        <v>1.052914913989528</v>
       </c>
       <c r="J25">
-        <v>1.033732315179491</v>
+        <v>1.028623871155273</v>
       </c>
       <c r="K25">
-        <v>1.044204839801676</v>
+        <v>1.040639936650625</v>
       </c>
       <c r="L25">
-        <v>1.037568280295486</v>
+        <v>1.03326279578863</v>
       </c>
       <c r="M25">
-        <v>1.048934074859497</v>
+        <v>1.044893936929868</v>
       </c>
       <c r="N25">
-        <v>1.0352003336378</v>
+        <v>1.013438552146098</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.039854439437012</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_41/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_41/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009396587455156</v>
+        <v>1.008705782438925</v>
       </c>
       <c r="D2">
-        <v>1.032023792561728</v>
+        <v>1.030765248920503</v>
       </c>
       <c r="E2">
-        <v>1.025071577544978</v>
+        <v>1.024373622233826</v>
       </c>
       <c r="F2">
-        <v>1.037045676703491</v>
+        <v>1.036098332886661</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.054161768952379</v>
+        <v>1.053505814009268</v>
       </c>
       <c r="J2">
-        <v>1.03129983513911</v>
+        <v>1.030629186807052</v>
       </c>
       <c r="K2">
-        <v>1.043054309414653</v>
+        <v>1.041811988970575</v>
       </c>
       <c r="L2">
-        <v>1.036192335220246</v>
+        <v>1.035503524261485</v>
       </c>
       <c r="M2">
-        <v>1.04801194885976</v>
+        <v>1.047076664823185</v>
       </c>
       <c r="N2">
-        <v>1.014330730119474</v>
+        <v>1.015317875988122</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.041513408385546</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.040643727956442</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023189118371174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.013063051528319</v>
+        <v>1.012228748938569</v>
       </c>
       <c r="D3">
-        <v>1.034562763176568</v>
+        <v>1.033120766310645</v>
       </c>
       <c r="E3">
-        <v>1.027992676221825</v>
+        <v>1.027160067968362</v>
       </c>
       <c r="F3">
-        <v>1.040086527085584</v>
+        <v>1.038984214459253</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.055026512441239</v>
+        <v>1.05427339592587</v>
       </c>
       <c r="J3">
-        <v>1.033203830194685</v>
+        <v>1.032391507710413</v>
       </c>
       <c r="K3">
-        <v>1.044771711252182</v>
+        <v>1.043346698878654</v>
       </c>
       <c r="L3">
-        <v>1.038279488387822</v>
+        <v>1.037456835823504</v>
       </c>
       <c r="M3">
-        <v>1.050230952431832</v>
+        <v>1.049141448098107</v>
       </c>
       <c r="N3">
-        <v>1.014967059647359</v>
+        <v>1.015786167301516</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042725097359668</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.041725962318372</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.023495677001013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.015395536322991</v>
+        <v>1.014470820937407</v>
       </c>
       <c r="D4">
-        <v>1.036179850573112</v>
+        <v>1.034621751953236</v>
       </c>
       <c r="E4">
-        <v>1.029856334113686</v>
+        <v>1.028938727623948</v>
       </c>
       <c r="F4">
-        <v>1.042024963961337</v>
+        <v>1.040824726879459</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.055564117471332</v>
+        <v>1.054749392995469</v>
       </c>
       <c r="J4">
-        <v>1.034413456398032</v>
+        <v>1.033511467841406</v>
       </c>
       <c r="K4">
-        <v>1.045860378450412</v>
+        <v>1.04431953573777</v>
       </c>
       <c r="L4">
-        <v>1.039607293770219</v>
+        <v>1.03869999622609</v>
       </c>
       <c r="M4">
-        <v>1.051641321953149</v>
+        <v>1.050454189329858</v>
       </c>
       <c r="N4">
-        <v>1.015371371820569</v>
+        <v>1.016083833562729</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043495763683915</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.042414809537939</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.023687603465574</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.016369429448731</v>
+        <v>1.015407180612647</v>
       </c>
       <c r="D5">
-        <v>1.036857100953521</v>
+        <v>1.035250742551166</v>
       </c>
       <c r="E5">
-        <v>1.030636166149921</v>
+        <v>1.029683244405161</v>
       </c>
       <c r="F5">
-        <v>1.0428358974499</v>
+        <v>1.041594970220963</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.055786748424888</v>
+        <v>1.054946386590194</v>
       </c>
       <c r="J5">
-        <v>1.034919294208366</v>
+        <v>1.033979993586661</v>
       </c>
       <c r="K5">
-        <v>1.046316174662987</v>
+        <v>1.044727137445311</v>
       </c>
       <c r="L5">
-        <v>1.040162688167376</v>
+        <v>1.039220186523324</v>
       </c>
       <c r="M5">
-        <v>1.05223107640255</v>
+        <v>1.051003336983705</v>
       </c>
       <c r="N5">
-        <v>1.015540730916285</v>
+        <v>1.016208588548298</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.04382518085349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.042710860621425</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.023767785895277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.016535582489989</v>
+        <v>1.015566964165621</v>
       </c>
       <c r="D6">
-        <v>1.036974669459836</v>
+        <v>1.03536017957892</v>
       </c>
       <c r="E6">
-        <v>1.030769813665802</v>
+        <v>1.029810902631909</v>
       </c>
       <c r="F6">
-        <v>1.042975097462905</v>
+        <v>1.041727292477133</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.055826024470368</v>
+        <v>1.05498134028588</v>
       </c>
       <c r="J6">
-        <v>1.035007017562696</v>
+        <v>1.034061381512405</v>
       </c>
       <c r="K6">
-        <v>1.046396557116483</v>
+        <v>1.044799397100877</v>
       </c>
       <c r="L6">
-        <v>1.040258667860146</v>
+        <v>1.03931019431969</v>
       </c>
       <c r="M6">
-        <v>1.052333152068521</v>
+        <v>1.051098547236461</v>
       </c>
       <c r="N6">
-        <v>1.015570436823106</v>
+        <v>1.016230520440642</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.043890716801914</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.042771522151109</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02378239392439</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015417072602817</v>
+        <v>1.014499028331421</v>
       </c>
       <c r="D7">
-        <v>1.036200156118875</v>
+        <v>1.034646435261611</v>
       </c>
       <c r="E7">
-        <v>1.029874991782328</v>
+        <v>1.028963121964965</v>
       </c>
       <c r="F7">
-        <v>1.042045005209909</v>
+        <v>1.040849932354377</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.055572980292184</v>
+        <v>1.054760635091692</v>
       </c>
       <c r="J7">
-        <v>1.034428514488806</v>
+        <v>1.033533023376071</v>
       </c>
       <c r="K7">
-        <v>1.045877597947324</v>
+        <v>1.044341077865385</v>
       </c>
       <c r="L7">
-        <v>1.039622857005152</v>
+        <v>1.038721227740274</v>
       </c>
       <c r="M7">
-        <v>1.051658304457485</v>
+        <v>1.050476274643166</v>
       </c>
       <c r="N7">
-        <v>1.015377322749069</v>
+        <v>1.016116083353958</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043527949911378</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.042452051506233</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.023693479948454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010654578376859</v>
+        <v>1.009937264991032</v>
       </c>
       <c r="D8">
-        <v>1.032900985024094</v>
+        <v>1.031595634198274</v>
       </c>
       <c r="E8">
-        <v>1.026074467678765</v>
+        <v>1.025350059160742</v>
       </c>
       <c r="F8">
-        <v>1.038090710464196</v>
+        <v>1.037108412492845</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.054465745544211</v>
+        <v>1.053785207907253</v>
       </c>
       <c r="J8">
-        <v>1.03195816456139</v>
+        <v>1.031261083508666</v>
       </c>
       <c r="K8">
-        <v>1.043652997180923</v>
+        <v>1.042363977083289</v>
       </c>
       <c r="L8">
-        <v>1.036912457442733</v>
+        <v>1.036197256504254</v>
       </c>
       <c r="M8">
-        <v>1.048778301672588</v>
+        <v>1.047808135548966</v>
       </c>
       <c r="N8">
-        <v>1.014551920910257</v>
+        <v>1.015565137596339</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.041959536103157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.041059102533338</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.023302720818986</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00192994999616</v>
+        <v>1.00156293838465</v>
       </c>
       <c r="D9">
-        <v>1.026865547988907</v>
+        <v>1.026002549117289</v>
       </c>
       <c r="E9">
-        <v>1.019153716432449</v>
+        <v>1.018756690300058</v>
       </c>
       <c r="F9">
-        <v>1.030876406090186</v>
+        <v>1.030269547434864</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.052334282282276</v>
+        <v>1.051887354873343</v>
       </c>
       <c r="J9">
-        <v>1.027414740345174</v>
+        <v>1.027060625733361</v>
       </c>
       <c r="K9">
-        <v>1.039537285381019</v>
+        <v>1.038687383907924</v>
       </c>
       <c r="L9">
-        <v>1.031943497642166</v>
+        <v>1.031552610505537</v>
       </c>
       <c r="M9">
-        <v>1.043487638564685</v>
+        <v>1.042889896037122</v>
       </c>
       <c r="N9">
-        <v>1.013032743700169</v>
+        <v>1.014458051551357</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.039046310362566</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.038456084736725</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.022553789142745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.995882408357384</v>
+        <v>0.9957975981037885</v>
       </c>
       <c r="D10">
-        <v>1.022697856763355</v>
+        <v>1.022168838224753</v>
       </c>
       <c r="E10">
-        <v>1.014389046235189</v>
+        <v>1.014252284441924</v>
       </c>
       <c r="F10">
-        <v>1.025901302553793</v>
+        <v>1.025585780679963</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.05079514685592</v>
+        <v>1.05052420575238</v>
       </c>
       <c r="J10">
-        <v>1.024260351736695</v>
+        <v>1.024178946354521</v>
       </c>
       <c r="K10">
-        <v>1.03666904102595</v>
+        <v>1.036149040398446</v>
       </c>
       <c r="L10">
-        <v>1.028503272792405</v>
+        <v>1.028368890835123</v>
       </c>
       <c r="M10">
-        <v>1.039818135637218</v>
+        <v>1.039507947605972</v>
       </c>
       <c r="N10">
-        <v>1.011978800346836</v>
+        <v>1.013809650615209</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.037035057897235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.036679774496129</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.022026758270175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9932138930613333</v>
+        <v>0.9933088757825668</v>
       </c>
       <c r="D11">
-        <v>1.020868688093178</v>
+        <v>1.020525901918322</v>
       </c>
       <c r="E11">
-        <v>1.012296520109754</v>
+        <v>1.012322404443206</v>
       </c>
       <c r="F11">
-        <v>1.02371471324044</v>
+        <v>1.02357189992825</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.050105751083151</v>
+        <v>1.049933218329042</v>
       </c>
       <c r="J11">
-        <v>1.022871732632199</v>
+        <v>1.022962687149682</v>
       </c>
       <c r="K11">
-        <v>1.035407497911663</v>
+        <v>1.035070840222454</v>
       </c>
       <c r="L11">
-        <v>1.026990208946455</v>
+        <v>1.027015620470771</v>
       </c>
       <c r="M11">
-        <v>1.038202846182706</v>
+        <v>1.038062567118107</v>
       </c>
       <c r="N11">
-        <v>1.011516315894077</v>
+        <v>1.013716360318253</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.036175874963365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.035953443444843</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021804499932624</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9922076472687797</v>
+        <v>0.9923756200610099</v>
       </c>
       <c r="D12">
-        <v>1.020176269641196</v>
+        <v>1.019907219566016</v>
       </c>
       <c r="E12">
-        <v>1.011507726382094</v>
+        <v>1.011599454911666</v>
       </c>
       <c r="F12">
-        <v>1.022889948251765</v>
+        <v>1.022816370025158</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049841415936758</v>
+        <v>1.049707853693362</v>
       </c>
       <c r="J12">
-        <v>1.022345494351792</v>
+        <v>1.022506199574197</v>
       </c>
       <c r="K12">
-        <v>1.034926870456648</v>
+        <v>1.03466271477636</v>
       </c>
       <c r="L12">
-        <v>1.026417728251023</v>
+        <v>1.026507751380436</v>
       </c>
       <c r="M12">
-        <v>1.037591370630265</v>
+        <v>1.0375191213447</v>
       </c>
       <c r="N12">
-        <v>1.011340334006136</v>
+        <v>1.013697041830766</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.035836056734832</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.035664892216188</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02171959257975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9924228194937063</v>
+        <v>0.9925749554907941</v>
       </c>
       <c r="D13">
-        <v>1.020323661371276</v>
+        <v>1.020038657148113</v>
       </c>
       <c r="E13">
-        <v>1.011676143206113</v>
+        <v>1.0117535944032</v>
       </c>
       <c r="F13">
-        <v>1.023066021500009</v>
+        <v>1.022977444259014</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049897597669309</v>
+        <v>1.049755604141329</v>
       </c>
       <c r="J13">
-        <v>1.022457549353352</v>
+        <v>1.022603131018675</v>
       </c>
       <c r="K13">
-        <v>1.035028819476927</v>
+        <v>1.034748980716303</v>
       </c>
       <c r="L13">
-        <v>1.026539719592817</v>
+        <v>1.026615736251291</v>
       </c>
       <c r="M13">
-        <v>1.037721667760509</v>
+        <v>1.037634684342725</v>
       </c>
       <c r="N13">
-        <v>1.011377659815288</v>
+        <v>1.013700133668867</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.035905648116579</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.035723151633646</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021737415384707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9931304392871507</v>
+        <v>0.9932313695751627</v>
       </c>
       <c r="D14">
-        <v>1.020810972947791</v>
+        <v>1.020474216624054</v>
       </c>
       <c r="E14">
-        <v>1.012230990062376</v>
+        <v>1.012262243709587</v>
       </c>
       <c r="F14">
-        <v>1.0236461844931</v>
+        <v>1.023509023774607</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.050083683478979</v>
+        <v>1.049914337851765</v>
       </c>
       <c r="J14">
-        <v>1.022827885956764</v>
+        <v>1.022924528686258</v>
       </c>
       <c r="K14">
-        <v>1.035367283052259</v>
+        <v>1.035036556104842</v>
       </c>
       <c r="L14">
-        <v>1.026942547379985</v>
+        <v>1.026973229301803</v>
       </c>
       <c r="M14">
-        <v>1.038151936325494</v>
+        <v>1.038017213127419</v>
       </c>
       <c r="N14">
-        <v>1.011501590320826</v>
+        <v>1.013714287821488</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.036146375330189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035928033681554</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021797314082271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9935673598954378</v>
+        <v>0.9936373604282431</v>
       </c>
       <c r="D15">
-        <v>1.021113235494032</v>
+        <v>1.020745059434639</v>
       </c>
       <c r="E15">
-        <v>1.012574144242971</v>
+        <v>1.012577468572067</v>
       </c>
       <c r="F15">
-        <v>1.024005034751226</v>
+        <v>1.023838448798438</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.050199179370769</v>
+        <v>1.050013226580371</v>
       </c>
       <c r="J15">
-        <v>1.023057489434598</v>
+        <v>1.023124542140821</v>
       </c>
       <c r="K15">
-        <v>1.035577897097408</v>
+        <v>1.035216263212825</v>
       </c>
       <c r="L15">
-        <v>1.027192131023895</v>
+        <v>1.027195395007838</v>
       </c>
       <c r="M15">
-        <v>1.038418523641664</v>
+        <v>1.038254875387467</v>
       </c>
       <c r="N15">
-        <v>1.011578716085701</v>
+        <v>1.013725855416726</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.036301149751018</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.036061524156066</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021834989615339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9960772344209609</v>
+        <v>0.9959804545419952</v>
       </c>
       <c r="D16">
-        <v>1.022842740042152</v>
+        <v>1.022301392147773</v>
       </c>
       <c r="E16">
-        <v>1.014545412206915</v>
+        <v>1.014397770832488</v>
       </c>
       <c r="F16">
-        <v>1.02606540291867</v>
+        <v>1.025738385324452</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.050852875016672</v>
+        <v>1.050575410771003</v>
       </c>
       <c r="J16">
-        <v>1.024370072563205</v>
+        <v>1.024277163563333</v>
       </c>
       <c r="K16">
-        <v>1.036775952756382</v>
+        <v>1.036243802766125</v>
       </c>
       <c r="L16">
-        <v>1.028620997342239</v>
+        <v>1.028475916613977</v>
       </c>
       <c r="M16">
-        <v>1.0399441192543</v>
+        <v>1.039622611508118</v>
       </c>
       <c r="N16">
-        <v>1.012017822599635</v>
+        <v>1.01382501082633</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.037151375899693</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.036791485147334</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02204860225928</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9976351525194102</v>
+        <v>0.997445842005709</v>
       </c>
       <c r="D17">
-        <v>1.023917344861098</v>
+        <v>1.023276194245599</v>
       </c>
       <c r="E17">
-        <v>1.015771184103203</v>
+        <v>1.015539349284223</v>
       </c>
       <c r="F17">
-        <v>1.027346062877886</v>
+        <v>1.02692823978177</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.051254868317745</v>
+        <v>1.050924689416463</v>
       </c>
       <c r="J17">
-        <v>1.025184512644494</v>
+        <v>1.025002527819178</v>
       </c>
       <c r="K17">
-        <v>1.037518621267373</v>
+        <v>1.036888055246433</v>
       </c>
       <c r="L17">
-        <v>1.029508224863301</v>
+        <v>1.029280294927539</v>
       </c>
       <c r="M17">
-        <v>1.040891023678348</v>
+        <v>1.040480037327772</v>
       </c>
       <c r="N17">
-        <v>1.012290301499274</v>
+        <v>1.013923524425341</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.037679049159029</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.037249819346509</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.022182428722628</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.998532190690027</v>
+        <v>0.9982938719331383</v>
       </c>
       <c r="D18">
-        <v>1.024532982330153</v>
+        <v>1.02383720678118</v>
       </c>
       <c r="E18">
-        <v>1.016476699449647</v>
+        <v>1.01620007427627</v>
       </c>
       <c r="F18">
-        <v>1.028082733206881</v>
+        <v>1.027615967004332</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.051482564965788</v>
+        <v>1.051123551421375</v>
       </c>
       <c r="J18">
-        <v>1.025650765009396</v>
+        <v>1.025421490044709</v>
       </c>
       <c r="K18">
-        <v>1.037941267695668</v>
+        <v>1.037256784672208</v>
       </c>
       <c r="L18">
-        <v>1.030016957930328</v>
+        <v>1.029744912092554</v>
       </c>
       <c r="M18">
-        <v>1.041433710877439</v>
+        <v>1.040974451210692</v>
       </c>
       <c r="N18">
-        <v>1.012445551549413</v>
+        <v>1.013993364703579</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.037966258575486</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.037497769828038</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.022258290361782</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9988416218029441</v>
+        <v>0.9985871898761433</v>
       </c>
       <c r="D19">
-        <v>1.024748106402759</v>
+        <v>1.024034149908406</v>
       </c>
       <c r="E19">
-        <v>1.016721000459684</v>
+        <v>1.016429610140106</v>
       </c>
       <c r="F19">
-        <v>1.028337985563106</v>
+        <v>1.027855013507607</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.051562741096371</v>
+        <v>1.051194131217257</v>
       </c>
       <c r="J19">
-        <v>1.025813579185534</v>
+        <v>1.025568737868075</v>
       </c>
       <c r="K19">
-        <v>1.038090575457358</v>
+        <v>1.037388138837287</v>
       </c>
       <c r="L19">
-        <v>1.030194187191233</v>
+        <v>1.029907591980754</v>
       </c>
       <c r="M19">
-        <v>1.041622841764025</v>
+        <v>1.041147590737415</v>
       </c>
       <c r="N19">
-        <v>1.012500348224692</v>
+        <v>1.01402124762542</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.038078202774575</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.037597641747578</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.022285871109318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9974681502038043</v>
+        <v>0.9972883110436426</v>
       </c>
       <c r="D20">
-        <v>1.023801844052305</v>
+        <v>1.023171068541014</v>
       </c>
       <c r="E20">
-        <v>1.015639625681087</v>
+        <v>1.015416429264534</v>
       </c>
       <c r="F20">
-        <v>1.027208614096742</v>
+        <v>1.026800163754281</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.051211733012557</v>
+        <v>1.050887032926474</v>
       </c>
       <c r="J20">
-        <v>1.025097020504225</v>
+        <v>1.024924165441848</v>
       </c>
       <c r="K20">
-        <v>1.037438691717193</v>
+        <v>1.036818362010104</v>
       </c>
       <c r="L20">
-        <v>1.029412934915949</v>
+        <v>1.029193509809518</v>
       </c>
       <c r="M20">
-        <v>1.040789329924172</v>
+        <v>1.040387584164396</v>
       </c>
       <c r="N20">
-        <v>1.012260971160774</v>
+        <v>1.013911336998537</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.037621203651828</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.037199082159663</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.022167899556795</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9929285411485649</v>
+        <v>0.9930624732287282</v>
       </c>
       <c r="D21">
-        <v>1.020675526065969</v>
+        <v>1.02036657706344</v>
       </c>
       <c r="E21">
-        <v>1.012073757842242</v>
+        <v>1.012134200575198</v>
       </c>
       <c r="F21">
-        <v>1.023481997428394</v>
+        <v>1.023373464927835</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.050033103856139</v>
+        <v>1.049878585690059</v>
       </c>
       <c r="J21">
-        <v>1.022724921546126</v>
+        <v>1.022853140716981</v>
       </c>
       <c r="K21">
-        <v>1.035275503187912</v>
+        <v>1.034972105464669</v>
       </c>
       <c r="L21">
-        <v>1.026829943529245</v>
+        <v>1.026889276553369</v>
       </c>
       <c r="M21">
-        <v>1.038031746389694</v>
+        <v>1.037925149675715</v>
       </c>
       <c r="N21">
-        <v>1.011467952688901</v>
+        <v>1.013777714472304</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.036094978576763</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.035897272066026</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021785747682032</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9900114060527164</v>
+        <v>0.9903461864826373</v>
       </c>
       <c r="D22">
-        <v>1.018665803755326</v>
+        <v>1.018562981457942</v>
       </c>
       <c r="E22">
-        <v>1.009788344034821</v>
+        <v>1.010030350532198</v>
       </c>
       <c r="F22">
-        <v>1.021091597669186</v>
+        <v>1.021175194295518</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04926036538003</v>
+        <v>1.049214643750466</v>
       </c>
       <c r="J22">
-        <v>1.021196356259824</v>
+        <v>1.021516021696167</v>
       </c>
       <c r="K22">
-        <v>1.033876339987051</v>
+        <v>1.033775458509479</v>
       </c>
       <c r="L22">
-        <v>1.025168354284699</v>
+        <v>1.025405689041091</v>
       </c>
       <c r="M22">
-        <v>1.036256493942753</v>
+        <v>1.036338522791824</v>
       </c>
       <c r="N22">
-        <v>1.010955972683798</v>
+        <v>1.013679188433141</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.03509223070967</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.035036415368786</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021534645892611</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9915557750923487</v>
+        <v>0.9917722008873134</v>
       </c>
       <c r="D23">
-        <v>1.019725094315943</v>
+        <v>1.019504526821566</v>
       </c>
       <c r="E23">
-        <v>1.010996223964877</v>
+        <v>1.011131638774229</v>
       </c>
       <c r="F23">
-        <v>1.022354880477789</v>
+        <v>1.022327055790685</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.049667681271286</v>
+        <v>1.04955974407376</v>
       </c>
       <c r="J23">
-        <v>1.022002451110674</v>
+        <v>1.022209393173237</v>
       </c>
       <c r="K23">
-        <v>1.034611660169217</v>
+        <v>1.034395149592919</v>
       </c>
       <c r="L23">
-        <v>1.026045105602846</v>
+        <v>1.026177974384011</v>
       </c>
       <c r="M23">
-        <v>1.037193251988692</v>
+        <v>1.037165935536611</v>
       </c>
       <c r="N23">
-        <v>1.011224977540673</v>
+        <v>1.013687098024189</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.035602510625661</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.035463996654624</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021663325967836</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.997531287613988</v>
+        <v>0.9973477537964999</v>
       </c>
       <c r="D24">
-        <v>1.023838239863045</v>
+        <v>1.023203167150721</v>
       </c>
       <c r="E24">
-        <v>1.015687181809707</v>
+        <v>1.015460619945084</v>
       </c>
       <c r="F24">
-        <v>1.027257788085224</v>
+        <v>1.026845578865466</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.05122302662865</v>
+        <v>1.050896063519598</v>
       </c>
       <c r="J24">
-        <v>1.025124700901991</v>
+        <v>1.024948283411357</v>
       </c>
       <c r="K24">
-        <v>1.037459274026033</v>
+        <v>1.036834703907776</v>
       </c>
       <c r="L24">
-        <v>1.029444301802451</v>
+        <v>1.029221562753991</v>
       </c>
       <c r="M24">
-        <v>1.040822558018938</v>
+        <v>1.040417105626211</v>
       </c>
       <c r="N24">
-        <v>1.012268683582336</v>
+        <v>1.013912609766765</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.03760841532764</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03718062294248</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.022169829572462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.0042383058557</v>
+        <v>1.003768601562419</v>
       </c>
       <c r="D25">
-        <v>1.028468042341973</v>
+        <v>1.027481362135008</v>
       </c>
       <c r="E25">
-        <v>1.020981690615156</v>
+        <v>1.020489501993451</v>
       </c>
       <c r="F25">
-        <v>1.032784094334237</v>
+        <v>1.032070119486749</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052914913989528</v>
+        <v>1.052402697067588</v>
       </c>
       <c r="J25">
-        <v>1.028623871155273</v>
+        <v>1.02816979945536</v>
       </c>
       <c r="K25">
-        <v>1.040639936650625</v>
+        <v>1.039667534705287</v>
       </c>
       <c r="L25">
-        <v>1.03326279578863</v>
+        <v>1.032777858509226</v>
       </c>
       <c r="M25">
-        <v>1.044893936929868</v>
+        <v>1.044190181515389</v>
       </c>
       <c r="N25">
-        <v>1.013438552146098</v>
+        <v>1.01472116995669</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.039854439437012</v>
+        <v>1.039180401411466</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02275669717365</v>
       </c>
     </row>
   </sheetData>
